--- a/Test/BO/MSE_75.xlsx
+++ b/Test/BO/MSE_75.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.06743634905483417</v>
+        <v>0.02223516698293451</v>
       </c>
       <c r="B1" t="n">
-        <v>0.04216601597444716</v>
+        <v>0.04048302412624091</v>
       </c>
       <c r="C1" t="n">
-        <v>0.02038985935314749</v>
+        <v>0.01264938252840233</v>
       </c>
       <c r="D1" t="n">
-        <v>0.07574989856475149</v>
+        <v>0.03622552989948517</v>
       </c>
       <c r="E1" t="n">
-        <v>0.01749582181731641</v>
+        <v>0.02253301214910172</v>
       </c>
       <c r="F1" t="n">
-        <v>0.07978855948314637</v>
+        <v>0.03080052759202268</v>
       </c>
       <c r="G1" t="n">
-        <v>0.03503661498086658</v>
+        <v>0.01918620022894279</v>
       </c>
       <c r="H1" t="n">
-        <v>0.02002018073390314</v>
+        <v>0.02900638965922294</v>
       </c>
       <c r="I1" t="n">
-        <v>0.08327912546923891</v>
+        <v>0.07331528468670503</v>
       </c>
       <c r="J1" t="n">
-        <v>0.05064505833649684</v>
+        <v>0.01697088283376197</v>
       </c>
     </row>
   </sheetData>
